--- a/2022/Symphony/JUNE/21.06.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JUNE/21.06.2022/MC Bank Statement June-2022.xlsx
@@ -3089,6 +3089,12 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3234,12 +3240,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3951,33 +3951,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="319"/>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
+      <c r="A1" s="321"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="320"/>
-      <c r="B2" s="317" t="s">
+      <c r="A2" s="322"/>
+      <c r="B2" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="320"/>
-      <c r="B3" s="318" t="s">
+      <c r="A3" s="322"/>
+      <c r="B3" s="320" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="320"/>
+      <c r="A4" s="322"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3995,7 +3995,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="320"/>
+      <c r="A5" s="322"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4013,7 +4013,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="320"/>
+      <c r="A6" s="322"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4025,7 +4025,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="320"/>
+      <c r="A7" s="322"/>
       <c r="B7" s="26" t="s">
         <v>53</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="320"/>
+      <c r="A8" s="322"/>
       <c r="B8" s="26" t="s">
         <v>54</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="320"/>
+      <c r="A9" s="322"/>
       <c r="B9" s="26" t="s">
         <v>56</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="320"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="26" t="s">
         <v>57</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="320"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="26" t="s">
         <v>58</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="320"/>
+      <c r="A12" s="322"/>
       <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="320"/>
+      <c r="A13" s="322"/>
       <c r="B13" s="26" t="s">
         <v>60</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="320"/>
+      <c r="A14" s="322"/>
       <c r="B14" s="26" t="s">
         <v>61</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="320"/>
+      <c r="A15" s="322"/>
       <c r="B15" s="26" t="s">
         <v>62</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="320"/>
+      <c r="A16" s="322"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4209,7 +4209,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="320"/>
+      <c r="A17" s="322"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4222,7 +4222,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="320"/>
+      <c r="A18" s="322"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4235,7 +4235,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="320"/>
+      <c r="A19" s="322"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4248,7 +4248,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="320"/>
+      <c r="A20" s="322"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4261,7 +4261,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="320"/>
+      <c r="A21" s="322"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4274,7 +4274,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="320"/>
+      <c r="A22" s="322"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4287,7 +4287,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="320"/>
+      <c r="A23" s="322"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4300,7 +4300,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="320"/>
+      <c r="A24" s="322"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4313,7 +4313,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="320"/>
+      <c r="A25" s="322"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4326,7 +4326,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="320"/>
+      <c r="A26" s="322"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4339,7 +4339,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="320"/>
+      <c r="A27" s="322"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4352,7 +4352,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="320"/>
+      <c r="A28" s="322"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4365,7 +4365,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="320"/>
+      <c r="A29" s="322"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4378,7 +4378,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="320"/>
+      <c r="A30" s="322"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4391,7 +4391,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="320"/>
+      <c r="A31" s="322"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4404,7 +4404,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="320"/>
+      <c r="A32" s="322"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4417,7 +4417,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="320"/>
+      <c r="A33" s="322"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4430,7 +4430,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="320"/>
+      <c r="A34" s="322"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4443,7 +4443,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="320"/>
+      <c r="A35" s="322"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4456,7 +4456,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="320"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4469,7 +4469,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="320"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4482,7 +4482,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="320"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4495,7 +4495,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="320"/>
+      <c r="A39" s="322"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4508,7 +4508,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="320"/>
+      <c r="A40" s="322"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4521,7 +4521,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="320"/>
+      <c r="A41" s="322"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4534,7 +4534,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="320"/>
+      <c r="A42" s="322"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4547,7 +4547,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="320"/>
+      <c r="A43" s="322"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4560,7 +4560,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="320"/>
+      <c r="A44" s="322"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4573,7 +4573,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="320"/>
+      <c r="A45" s="322"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4586,7 +4586,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="320"/>
+      <c r="A46" s="322"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4599,7 +4599,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="320"/>
+      <c r="A47" s="322"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4612,7 +4612,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="320"/>
+      <c r="A48" s="322"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4625,7 +4625,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="320"/>
+      <c r="A49" s="322"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4638,7 +4638,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="320"/>
+      <c r="A50" s="322"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4651,7 +4651,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="320"/>
+      <c r="A51" s="322"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4664,7 +4664,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="320"/>
+      <c r="A52" s="322"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4677,7 +4677,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="320"/>
+      <c r="A53" s="322"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4690,7 +4690,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="320"/>
+      <c r="A54" s="322"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4703,7 +4703,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="320"/>
+      <c r="A55" s="322"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4715,7 +4715,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="320"/>
+      <c r="A56" s="322"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4727,7 +4727,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="320"/>
+      <c r="A57" s="322"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4739,7 +4739,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="320"/>
+      <c r="A58" s="322"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4751,7 +4751,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="320"/>
+      <c r="A59" s="322"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4763,7 +4763,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="320"/>
+      <c r="A60" s="322"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4775,7 +4775,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="320"/>
+      <c r="A61" s="322"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4787,7 +4787,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="320"/>
+      <c r="A62" s="322"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4799,7 +4799,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="320"/>
+      <c r="A63" s="322"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4811,7 +4811,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="320"/>
+      <c r="A64" s="322"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4823,7 +4823,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="320"/>
+      <c r="A65" s="322"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4835,7 +4835,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="320"/>
+      <c r="A66" s="322"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4847,7 +4847,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="320"/>
+      <c r="A67" s="322"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4859,7 +4859,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="320"/>
+      <c r="A68" s="322"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4871,7 +4871,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="320"/>
+      <c r="A69" s="322"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4883,7 +4883,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="320"/>
+      <c r="A70" s="322"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4895,7 +4895,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="320"/>
+      <c r="A71" s="322"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4907,7 +4907,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="320"/>
+      <c r="A72" s="322"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4919,7 +4919,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="320"/>
+      <c r="A73" s="322"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4931,7 +4931,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="320"/>
+      <c r="A74" s="322"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4943,7 +4943,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="320"/>
+      <c r="A75" s="322"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4955,7 +4955,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="320"/>
+      <c r="A76" s="322"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4967,7 +4967,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="320"/>
+      <c r="A77" s="322"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4979,7 +4979,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="320"/>
+      <c r="A78" s="322"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4991,7 +4991,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="320"/>
+      <c r="A79" s="322"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5003,7 +5003,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="320"/>
+      <c r="A80" s="322"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5015,7 +5015,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="320"/>
+      <c r="A81" s="322"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5027,7 +5027,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="320"/>
+      <c r="A82" s="322"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5039,7 +5039,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="320"/>
+      <c r="A83" s="322"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5096,33 +5096,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="319"/>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
+      <c r="A1" s="321"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="320"/>
-      <c r="B2" s="317" t="s">
+      <c r="A2" s="322"/>
+      <c r="B2" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="320"/>
-      <c r="B3" s="318" t="s">
+      <c r="A3" s="322"/>
+      <c r="B3" s="320" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="320"/>
+      <c r="A4" s="322"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5140,7 +5140,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="320"/>
+      <c r="A5" s="322"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5158,7 +5158,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="320"/>
+      <c r="A6" s="322"/>
       <c r="B6" s="26"/>
       <c r="C6" s="259"/>
       <c r="D6" s="259"/>
@@ -5170,7 +5170,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="320"/>
+      <c r="A7" s="322"/>
       <c r="B7" s="26" t="s">
         <v>210</v>
       </c>
@@ -5188,7 +5188,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="320"/>
+      <c r="A8" s="322"/>
       <c r="B8" s="26" t="s">
         <v>213</v>
       </c>
@@ -5206,7 +5206,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="320"/>
+      <c r="A9" s="322"/>
       <c r="B9" s="26" t="s">
         <v>215</v>
       </c>
@@ -5224,7 +5224,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="320"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="26" t="s">
         <v>216</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="320"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="26" t="s">
         <v>219</v>
       </c>
@@ -5260,7 +5260,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="320"/>
+      <c r="A12" s="322"/>
       <c r="B12" s="26" t="s">
         <v>220</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="320"/>
+      <c r="A13" s="322"/>
       <c r="B13" s="26" t="s">
         <v>221</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="320"/>
+      <c r="A14" s="322"/>
       <c r="B14" s="26" t="s">
         <v>224</v>
       </c>
@@ -5314,7 +5314,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="320"/>
+      <c r="A15" s="322"/>
       <c r="B15" s="26" t="s">
         <v>225</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="320"/>
+      <c r="A16" s="322"/>
       <c r="B16" s="26" t="s">
         <v>230</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="320"/>
+      <c r="A17" s="322"/>
       <c r="B17" s="26" t="s">
         <v>231</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="320"/>
+      <c r="A18" s="322"/>
       <c r="B18" s="26" t="s">
         <v>234</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="320"/>
+      <c r="A19" s="322"/>
       <c r="B19" s="26" t="s">
         <v>238</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="320"/>
+      <c r="A20" s="322"/>
       <c r="B20" s="26" t="s">
         <v>246</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="320"/>
+      <c r="A21" s="322"/>
       <c r="B21" s="26" t="s">
         <v>248</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="320"/>
+      <c r="A22" s="322"/>
       <c r="B22" s="26" t="s">
         <v>250</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="320"/>
+      <c r="A23" s="322"/>
       <c r="B23" s="26" t="s">
         <v>252</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="320"/>
+      <c r="A24" s="322"/>
       <c r="B24" s="26" t="s">
         <v>256</v>
       </c>
@@ -5494,7 +5494,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="320"/>
+      <c r="A25" s="322"/>
       <c r="B25" s="26"/>
       <c r="C25" s="259"/>
       <c r="D25" s="259"/>
@@ -5506,7 +5506,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="320"/>
+      <c r="A26" s="322"/>
       <c r="B26" s="26"/>
       <c r="C26" s="259"/>
       <c r="D26" s="259"/>
@@ -5518,7 +5518,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="320"/>
+      <c r="A27" s="322"/>
       <c r="B27" s="26"/>
       <c r="C27" s="259"/>
       <c r="D27" s="259"/>
@@ -5530,7 +5530,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="320"/>
+      <c r="A28" s="322"/>
       <c r="B28" s="26"/>
       <c r="C28" s="259"/>
       <c r="D28" s="259"/>
@@ -5542,7 +5542,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="320"/>
+      <c r="A29" s="322"/>
       <c r="B29" s="26"/>
       <c r="C29" s="259"/>
       <c r="D29" s="259"/>
@@ -5554,7 +5554,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="320"/>
+      <c r="A30" s="322"/>
       <c r="B30" s="26"/>
       <c r="C30" s="259"/>
       <c r="D30" s="259"/>
@@ -5566,7 +5566,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="320"/>
+      <c r="A31" s="322"/>
       <c r="B31" s="26"/>
       <c r="C31" s="259"/>
       <c r="D31" s="259"/>
@@ -5578,7 +5578,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="320"/>
+      <c r="A32" s="322"/>
       <c r="B32" s="26"/>
       <c r="C32" s="259"/>
       <c r="D32" s="259"/>
@@ -5590,7 +5590,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="320"/>
+      <c r="A33" s="322"/>
       <c r="B33" s="26"/>
       <c r="C33" s="259"/>
       <c r="D33" s="261"/>
@@ -5602,7 +5602,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="320"/>
+      <c r="A34" s="322"/>
       <c r="B34" s="26"/>
       <c r="C34" s="259"/>
       <c r="D34" s="259"/>
@@ -5614,7 +5614,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="320"/>
+      <c r="A35" s="322"/>
       <c r="B35" s="26"/>
       <c r="C35" s="259"/>
       <c r="D35" s="259"/>
@@ -5626,7 +5626,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="320"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="26"/>
       <c r="C36" s="259"/>
       <c r="D36" s="259"/>
@@ -5638,7 +5638,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="320"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="26"/>
       <c r="C37" s="259"/>
       <c r="D37" s="259"/>
@@ -5650,7 +5650,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="320"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="26"/>
       <c r="C38" s="259"/>
       <c r="D38" s="259"/>
@@ -5662,7 +5662,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="320"/>
+      <c r="A39" s="322"/>
       <c r="B39" s="26"/>
       <c r="C39" s="259"/>
       <c r="D39" s="259"/>
@@ -5674,7 +5674,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="320"/>
+      <c r="A40" s="322"/>
       <c r="B40" s="26"/>
       <c r="C40" s="259"/>
       <c r="D40" s="259"/>
@@ -5686,7 +5686,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="320"/>
+      <c r="A41" s="322"/>
       <c r="B41" s="26"/>
       <c r="C41" s="259"/>
       <c r="D41" s="259"/>
@@ -5698,7 +5698,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="320"/>
+      <c r="A42" s="322"/>
       <c r="B42" s="26"/>
       <c r="C42" s="259"/>
       <c r="D42" s="259"/>
@@ -5710,7 +5710,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="320"/>
+      <c r="A43" s="322"/>
       <c r="B43" s="26"/>
       <c r="C43" s="259"/>
       <c r="D43" s="259"/>
@@ -5722,7 +5722,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="320"/>
+      <c r="A44" s="322"/>
       <c r="B44" s="26"/>
       <c r="C44" s="259"/>
       <c r="D44" s="259"/>
@@ -5734,7 +5734,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="320"/>
+      <c r="A45" s="322"/>
       <c r="B45" s="26"/>
       <c r="C45" s="259"/>
       <c r="D45" s="259"/>
@@ -5746,7 +5746,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="320"/>
+      <c r="A46" s="322"/>
       <c r="B46" s="26"/>
       <c r="C46" s="259"/>
       <c r="D46" s="259"/>
@@ -5758,7 +5758,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="320"/>
+      <c r="A47" s="322"/>
       <c r="B47" s="26"/>
       <c r="C47" s="259"/>
       <c r="D47" s="259"/>
@@ -5770,7 +5770,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="320"/>
+      <c r="A48" s="322"/>
       <c r="B48" s="26"/>
       <c r="C48" s="259"/>
       <c r="D48" s="259"/>
@@ -5782,7 +5782,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="320"/>
+      <c r="A49" s="322"/>
       <c r="B49" s="26"/>
       <c r="C49" s="259"/>
       <c r="D49" s="259"/>
@@ -5794,7 +5794,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="320"/>
+      <c r="A50" s="322"/>
       <c r="B50" s="26"/>
       <c r="C50" s="259"/>
       <c r="D50" s="259"/>
@@ -5806,7 +5806,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="320"/>
+      <c r="A51" s="322"/>
       <c r="B51" s="26"/>
       <c r="C51" s="259"/>
       <c r="D51" s="259"/>
@@ -5818,7 +5818,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="320"/>
+      <c r="A52" s="322"/>
       <c r="B52" s="26"/>
       <c r="C52" s="259"/>
       <c r="D52" s="259"/>
@@ -5830,7 +5830,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="320"/>
+      <c r="A53" s="322"/>
       <c r="B53" s="26"/>
       <c r="C53" s="259"/>
       <c r="D53" s="259"/>
@@ -5842,7 +5842,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="320"/>
+      <c r="A54" s="322"/>
       <c r="B54" s="26"/>
       <c r="C54" s="259"/>
       <c r="D54" s="259"/>
@@ -5854,7 +5854,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="320"/>
+      <c r="A55" s="322"/>
       <c r="B55" s="26"/>
       <c r="C55" s="259"/>
       <c r="D55" s="259"/>
@@ -5866,7 +5866,7 @@
       <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="320"/>
+      <c r="A56" s="322"/>
       <c r="B56" s="26"/>
       <c r="C56" s="259"/>
       <c r="D56" s="259"/>
@@ -5878,7 +5878,7 @@
       <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="320"/>
+      <c r="A57" s="322"/>
       <c r="B57" s="26"/>
       <c r="C57" s="259"/>
       <c r="D57" s="259"/>
@@ -5890,7 +5890,7 @@
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="320"/>
+      <c r="A58" s="322"/>
       <c r="B58" s="26"/>
       <c r="C58" s="259"/>
       <c r="D58" s="259"/>
@@ -5902,7 +5902,7 @@
       <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="320"/>
+      <c r="A59" s="322"/>
       <c r="B59" s="26"/>
       <c r="C59" s="259"/>
       <c r="D59" s="259"/>
@@ -5913,7 +5913,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="320"/>
+      <c r="A60" s="322"/>
       <c r="B60" s="26"/>
       <c r="C60" s="259"/>
       <c r="D60" s="259"/>
@@ -5924,7 +5924,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="320"/>
+      <c r="A61" s="322"/>
       <c r="B61" s="26"/>
       <c r="C61" s="259"/>
       <c r="D61" s="259"/>
@@ -5935,7 +5935,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="320"/>
+      <c r="A62" s="322"/>
       <c r="B62" s="26"/>
       <c r="C62" s="259"/>
       <c r="D62" s="259"/>
@@ -5946,7 +5946,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="320"/>
+      <c r="A63" s="322"/>
       <c r="B63" s="26"/>
       <c r="C63" s="259"/>
       <c r="D63" s="259"/>
@@ -5957,7 +5957,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="320"/>
+      <c r="A64" s="322"/>
       <c r="B64" s="26"/>
       <c r="C64" s="259"/>
       <c r="D64" s="259"/>
@@ -5968,7 +5968,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="320"/>
+      <c r="A65" s="322"/>
       <c r="B65" s="26"/>
       <c r="C65" s="259"/>
       <c r="D65" s="259"/>
@@ -5979,7 +5979,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="320"/>
+      <c r="A66" s="322"/>
       <c r="B66" s="26"/>
       <c r="C66" s="259"/>
       <c r="D66" s="259"/>
@@ -5990,7 +5990,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="320"/>
+      <c r="A67" s="322"/>
       <c r="B67" s="26"/>
       <c r="C67" s="259"/>
       <c r="D67" s="259"/>
@@ -6001,7 +6001,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="320"/>
+      <c r="A68" s="322"/>
       <c r="B68" s="26"/>
       <c r="C68" s="259"/>
       <c r="D68" s="259"/>
@@ -6012,7 +6012,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="320"/>
+      <c r="A69" s="322"/>
       <c r="B69" s="26"/>
       <c r="C69" s="259"/>
       <c r="D69" s="259"/>
@@ -6023,7 +6023,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="320"/>
+      <c r="A70" s="322"/>
       <c r="B70" s="26"/>
       <c r="C70" s="259"/>
       <c r="D70" s="259"/>
@@ -6034,7 +6034,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="320"/>
+      <c r="A71" s="322"/>
       <c r="B71" s="26"/>
       <c r="C71" s="259"/>
       <c r="D71" s="259"/>
@@ -6045,7 +6045,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="320"/>
+      <c r="A72" s="322"/>
       <c r="B72" s="26"/>
       <c r="C72" s="259"/>
       <c r="D72" s="259"/>
@@ -6056,7 +6056,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="320"/>
+      <c r="A73" s="322"/>
       <c r="B73" s="26"/>
       <c r="C73" s="259"/>
       <c r="D73" s="259"/>
@@ -6067,7 +6067,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="320"/>
+      <c r="A74" s="322"/>
       <c r="B74" s="26"/>
       <c r="C74" s="259"/>
       <c r="D74" s="259"/>
@@ -6078,7 +6078,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="320"/>
+      <c r="A75" s="322"/>
       <c r="B75" s="26"/>
       <c r="C75" s="259"/>
       <c r="D75" s="259"/>
@@ -6089,7 +6089,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="320"/>
+      <c r="A76" s="322"/>
       <c r="B76" s="26"/>
       <c r="C76" s="259"/>
       <c r="D76" s="259"/>
@@ -6100,7 +6100,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="320"/>
+      <c r="A77" s="322"/>
       <c r="B77" s="26"/>
       <c r="C77" s="259"/>
       <c r="D77" s="259"/>
@@ -6111,7 +6111,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="320"/>
+      <c r="A78" s="322"/>
       <c r="B78" s="26"/>
       <c r="C78" s="259"/>
       <c r="D78" s="259"/>
@@ -6122,7 +6122,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="320"/>
+      <c r="A79" s="322"/>
       <c r="B79" s="26"/>
       <c r="C79" s="259"/>
       <c r="D79" s="259"/>
@@ -6134,7 +6134,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="320"/>
+      <c r="A80" s="322"/>
       <c r="B80" s="26"/>
       <c r="C80" s="259"/>
       <c r="D80" s="259"/>
@@ -6146,7 +6146,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="320"/>
+      <c r="A81" s="322"/>
       <c r="B81" s="26"/>
       <c r="C81" s="259"/>
       <c r="D81" s="259"/>
@@ -6158,7 +6158,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="320"/>
+      <c r="A82" s="322"/>
       <c r="B82" s="26"/>
       <c r="C82" s="259"/>
       <c r="D82" s="259"/>
@@ -6170,7 +6170,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="320"/>
+      <c r="A83" s="322"/>
       <c r="B83" s="288"/>
       <c r="C83" s="260">
         <f>SUM(C5:C72)</f>
@@ -6250,67 +6250,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="325"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="328" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="329" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
-      <c r="N3" s="328"/>
-      <c r="O3" s="328"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="329"/>
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
+      <c r="J3" s="330"/>
+      <c r="K3" s="330"/>
+      <c r="L3" s="330"/>
+      <c r="M3" s="330"/>
+      <c r="N3" s="330"/>
+      <c r="O3" s="330"/>
+      <c r="P3" s="330"/>
+      <c r="Q3" s="331"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6319,52 +6319,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="332" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="332" t="s">
+      <c r="B4" s="334" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="321" t="s">
+      <c r="C4" s="323" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="321" t="s">
+      <c r="D4" s="323" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="323" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="321" t="s">
+      <c r="F4" s="323" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="321" t="s">
+      <c r="G4" s="323" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="321" t="s">
+      <c r="H4" s="323" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="321" t="s">
+      <c r="I4" s="323" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="321" t="s">
+      <c r="J4" s="323" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="321" t="s">
+      <c r="K4" s="323" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="321" t="s">
+      <c r="L4" s="323" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="321" t="s">
+      <c r="M4" s="323" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="321" t="s">
+      <c r="N4" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="323" t="s">
+      <c r="O4" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="334" t="s">
+      <c r="P4" s="336" t="s">
         <v>64</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6377,22 +6377,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="331"/>
-      <c r="B5" s="333"/>
-      <c r="C5" s="322"/>
-      <c r="D5" s="322"/>
-      <c r="E5" s="322"/>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="322"/>
-      <c r="K5" s="322"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="322"/>
-      <c r="N5" s="322"/>
-      <c r="O5" s="324"/>
-      <c r="P5" s="335"/>
+      <c r="A5" s="333"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="324"/>
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="324"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="324"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="324"/>
+      <c r="N5" s="324"/>
+      <c r="O5" s="326"/>
+      <c r="P5" s="337"/>
       <c r="Q5" s="133" t="s">
         <v>42</v>
       </c>
@@ -9487,11 +9487,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9506,6 +9501,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9546,14 +9546,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="342"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="344"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="149"/>
@@ -9647,14 +9647,14 @@
       <c r="CS1" s="144"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="345" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="345"/>
+      <c r="B2" s="346"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="347"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="149"/>
@@ -9748,14 +9748,14 @@
       <c r="CS2" s="144"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="346" t="s">
+      <c r="A3" s="348" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="348"/>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="350"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="149"/>
@@ -13178,12 +13178,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="338" t="s">
+      <c r="B35" s="340" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="338"/>
-      <c r="D35" s="338"/>
-      <c r="E35" s="338"/>
+      <c r="C35" s="340"/>
+      <c r="D35" s="340"/>
+      <c r="E35" s="340"/>
       <c r="F35" s="140"/>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -14036,10 +14036,10 @@
       <c r="D43" s="214"/>
       <c r="E43" s="182"/>
       <c r="F43" s="140"/>
-      <c r="G43" s="339"/>
-      <c r="H43" s="339"/>
-      <c r="I43" s="339"/>
-      <c r="J43" s="339"/>
+      <c r="G43" s="341"/>
+      <c r="H43" s="341"/>
+      <c r="I43" s="341"/>
+      <c r="J43" s="341"/>
       <c r="K43" s="65"/>
       <c r="L43" s="149"/>
       <c r="M43" s="65"/>
@@ -22718,11 +22718,11 @@
       <c r="CS118" s="144"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="336" t="s">
+      <c r="A119" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="B119" s="337"/>
-      <c r="C119" s="349"/>
+      <c r="B119" s="339"/>
+      <c r="C119" s="351"/>
       <c r="D119" s="219">
         <f>SUM(D37:D118)</f>
         <v>2415365</v>
@@ -22925,11 +22925,11 @@
       <c r="CS120" s="144"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="336" t="s">
+      <c r="A121" s="338" t="s">
         <v>31</v>
       </c>
-      <c r="B121" s="337"/>
-      <c r="C121" s="337"/>
+      <c r="B121" s="339"/>
+      <c r="C121" s="339"/>
       <c r="D121" s="219">
         <f>D119+M121</f>
         <v>2415365</v>
@@ -34167,7 +34167,7 @@
   <dimension ref="A1:Y217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34186,35 +34186,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="355" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="355"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="357"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="361" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="361"/>
+      <c r="B2" s="362"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="363"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="358" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="358"/>
+      <c r="B3" s="359"/>
+      <c r="C3" s="359"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="360"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34237,15 +34237,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="364" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="363"/>
+      <c r="B4" s="365"/>
       <c r="C4" s="270"/>
-      <c r="D4" s="364" t="s">
+      <c r="D4" s="366" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="365"/>
+      <c r="E4" s="367"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -34279,7 +34279,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="252">
-        <v>7940920.4877999984</v>
+        <v>8216528.3677999992</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="267"/>
@@ -34307,7 +34307,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="256">
-        <v>156382.19000000006</v>
+        <v>156832.57000000007</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="39" t="s">
@@ -34345,7 +34345,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="283">
-        <v>71512.702200002968</v>
+        <v>96355.202200001106</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="268"/>
@@ -34466,12 +34466,12 @@
       <c r="Y10" s="7"/>
     </row>
     <row r="11" spans="1:25" ht="21.75">
-      <c r="A11" s="366" t="s">
+      <c r="A11" s="317" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="367">
+      <c r="B11" s="318">
         <f>B6-B9-B10</f>
-        <v>119632.19000000006</v>
+        <v>120082.57000000007</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="314"/>
@@ -34535,7 +34535,7 @@
       </c>
       <c r="B13" s="312">
         <f>B11+B12</f>
-        <v>185652.19000000006</v>
+        <v>186102.57000000007</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="39"/>
@@ -34597,7 +34597,7 @@
         <v>251</v>
       </c>
       <c r="B15" s="256">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -34660,7 +34660,7 @@
       </c>
       <c r="B17" s="257">
         <f>B5+B13+B15+B16</f>
-        <v>10385652.190000001</v>
+        <v>10686102.57</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40" t="s">
@@ -34668,7 +34668,7 @@
       </c>
       <c r="E17" s="255">
         <f>SUM(E5:E16)</f>
-        <v>10385652.190000001</v>
+        <v>10686102.57</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="12"/>
@@ -34724,13 +34724,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="350" t="s">
+      <c r="A19" s="352" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="351"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="352"/>
+      <c r="B19" s="353"/>
+      <c r="C19" s="353"/>
+      <c r="D19" s="353"/>
+      <c r="E19" s="354"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
